--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slitrk6</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slitrk6</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.01109533333333333</v>
+        <v>0.302675</v>
       </c>
       <c r="H2">
-        <v>0.033286</v>
+        <v>0.6053500000000001</v>
       </c>
       <c r="I2">
-        <v>0.003294549349921355</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.004933696870972547</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N2">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O2">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P2">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q2">
-        <v>0.04444979523844445</v>
+        <v>0.6070644520916667</v>
       </c>
       <c r="R2">
-        <v>0.4000481571460001</v>
+        <v>3.64238671255</v>
       </c>
       <c r="S2">
-        <v>0.0001810705772246762</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="T2">
-        <v>0.0002969810925563027</v>
+        <v>0.03172257287647481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,19 +599,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.01109533333333333</v>
+        <v>0.302675</v>
       </c>
       <c r="H3">
-        <v>0.033286</v>
+        <v>0.6053500000000001</v>
       </c>
       <c r="I3">
-        <v>0.003294549349921355</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.004933696870972547</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P3">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q3">
-        <v>0.3623443023835556</v>
+        <v>9.884566639783335</v>
       </c>
       <c r="R3">
-        <v>3.261098721452</v>
+        <v>59.30739983870001</v>
       </c>
       <c r="S3">
-        <v>0.001476044864429821</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="T3">
-        <v>0.002420920191559144</v>
+        <v>0.5165248673390457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,19 +661,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.01109533333333333</v>
+        <v>0.302675</v>
       </c>
       <c r="H4">
-        <v>0.033286</v>
+        <v>0.6053500000000001</v>
       </c>
       <c r="I4">
-        <v>0.003294549349921355</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.004933696870972547</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N4">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O4">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P4">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q4">
-        <v>0.09780460515222222</v>
+        <v>3.176776009225001</v>
       </c>
       <c r="R4">
-        <v>0.88024144637</v>
+        <v>19.06065605535</v>
       </c>
       <c r="S4">
-        <v>0.0003984166004622563</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="T4">
-        <v>0.0006534589943402681</v>
+        <v>0.1660046278737794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.01109533333333333</v>
+        <v>0.302675</v>
       </c>
       <c r="H5">
-        <v>0.033286</v>
+        <v>0.6053500000000001</v>
       </c>
       <c r="I5">
-        <v>0.003294549349921355</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.004933696870972547</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N5">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O5">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P5">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q5">
-        <v>0.2109592396743334</v>
+        <v>3.769925028637501</v>
       </c>
       <c r="R5">
-        <v>1.265755438046</v>
+        <v>15.07970011455</v>
       </c>
       <c r="S5">
-        <v>0.000859363043042156</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="T5">
-        <v>0.0009396504550395759</v>
+        <v>0.1313333601264699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.01109533333333333</v>
+        <v>0.302675</v>
       </c>
       <c r="H6">
-        <v>0.033286</v>
+        <v>0.6053500000000001</v>
       </c>
       <c r="I6">
-        <v>0.003294549349921355</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.004933696870972547</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N6">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O6">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P6">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q6">
-        <v>0.09319876585555557</v>
+        <v>2.9549809147</v>
       </c>
       <c r="R6">
-        <v>0.8387888927000001</v>
+        <v>17.7298854882</v>
       </c>
       <c r="S6">
-        <v>0.0003796542647624458</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="T6">
-        <v>0.0006226861374772567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>3.3566895</v>
-      </c>
-      <c r="H7">
-        <v>6.713379</v>
-      </c>
-      <c r="I7">
-        <v>0.9967054506500787</v>
-      </c>
-      <c r="J7">
-        <v>0.9950663031290274</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.006170333333333</v>
-      </c>
-      <c r="N7">
-        <v>12.018511</v>
-      </c>
-      <c r="O7">
-        <v>0.0549606510611227</v>
-      </c>
-      <c r="P7">
-        <v>0.06019443438116229</v>
-      </c>
-      <c r="Q7">
-        <v>13.4474698931115</v>
-      </c>
-      <c r="R7">
-        <v>80.684819358669</v>
-      </c>
-      <c r="S7">
-        <v>0.05477958048389802</v>
-      </c>
-      <c r="T7">
-        <v>0.05989745328860599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>3.3566895</v>
-      </c>
-      <c r="H8">
-        <v>6.713379</v>
-      </c>
-      <c r="I8">
-        <v>0.9967054506500787</v>
-      </c>
-      <c r="J8">
-        <v>0.9950663031290274</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>32.65736066666667</v>
-      </c>
-      <c r="N8">
-        <v>97.972082</v>
-      </c>
-      <c r="O8">
-        <v>0.4480263330901557</v>
-      </c>
-      <c r="P8">
-        <v>0.490690906813236</v>
-      </c>
-      <c r="Q8">
-        <v>109.620619647513</v>
-      </c>
-      <c r="R8">
-        <v>657.723717885078</v>
-      </c>
-      <c r="S8">
-        <v>0.4465502882257259</v>
-      </c>
-      <c r="T8">
-        <v>0.4882699866216768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>3.3566895</v>
-      </c>
-      <c r="H9">
-        <v>6.713379</v>
-      </c>
-      <c r="I9">
-        <v>0.9967054506500787</v>
-      </c>
-      <c r="J9">
-        <v>0.9950663031290274</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.814931666666666</v>
-      </c>
-      <c r="N9">
-        <v>26.444795</v>
-      </c>
-      <c r="O9">
-        <v>0.1209320481029574</v>
-      </c>
-      <c r="P9">
-        <v>0.1324481441462082</v>
-      </c>
-      <c r="Q9">
-        <v>29.5889885687175</v>
-      </c>
-      <c r="R9">
-        <v>177.533931412305</v>
-      </c>
-      <c r="S9">
-        <v>0.1205336315024951</v>
-      </c>
-      <c r="T9">
-        <v>0.1317946851518679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>3.3566895</v>
-      </c>
-      <c r="H10">
-        <v>6.713379</v>
-      </c>
-      <c r="I10">
-        <v>0.9967054506500787</v>
-      </c>
-      <c r="J10">
-        <v>0.9950663031290274</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>19.0133305</v>
-      </c>
-      <c r="N10">
-        <v>38.026661</v>
-      </c>
-      <c r="O10">
-        <v>0.2608438823545533</v>
-      </c>
-      <c r="P10">
-        <v>0.1904556521435312</v>
-      </c>
-      <c r="Q10">
-        <v>63.82184684937975</v>
-      </c>
-      <c r="R10">
-        <v>255.287387397519</v>
-      </c>
-      <c r="S10">
-        <v>0.2599845193115112</v>
-      </c>
-      <c r="T10">
-        <v>0.1895160016884916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>3.3566895</v>
-      </c>
-      <c r="H11">
-        <v>6.713379</v>
-      </c>
-      <c r="I11">
-        <v>0.9967054506500787</v>
-      </c>
-      <c r="J11">
-        <v>0.9950663031290274</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.399816666666668</v>
-      </c>
-      <c r="N11">
-        <v>25.19945</v>
-      </c>
-      <c r="O11">
-        <v>0.115237085391211</v>
-      </c>
-      <c r="P11">
-        <v>0.1262108625158624</v>
-      </c>
-      <c r="Q11">
-        <v>28.195576406925</v>
-      </c>
-      <c r="R11">
-        <v>169.17345844155</v>
-      </c>
-      <c r="S11">
-        <v>0.1148574311264485</v>
-      </c>
-      <c r="T11">
-        <v>0.1255881763783852</v>
+        <v>0.1544145717842301</v>
       </c>
     </row>
   </sheetData>
